--- a/5. Other/BÁO GIÁ BẢO HÀNH ST/Equipment fault information record sheet_VNETGPS-205628_131125.xlsx
+++ b/5. Other/BÁO GIÁ BẢO HÀNH ST/Equipment fault information record sheet_VNETGPS-205628_131125.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\BÁO GIÁ BẢO HÀNH ST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\BÁO GIÁ BẢO HÀNH ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86544E06-679B-4F1A-A66A-3F08B0FAE72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7840DAD1-1D4E-41DD-A992-727A36A11BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,18 +388,6 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -437,11 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -450,6 +433,23 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -542,11 +542,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,10 +559,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -571,82 +571,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -984,9 +981,9 @@
   </sheetPr>
   <dimension ref="A1:AP54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.1" customHeight="1"/>
@@ -995,8 +992,8 @@
     <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="13" customWidth="1"/>
     <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="69.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.125" style="1" customWidth="1"/>
@@ -1007,22 +1004,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="1" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -1071,7 +1068,7 @@
       <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -1128,25 +1125,25 @@
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="23" t="s">
         <v>77</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -1155,10 +1152,10 @@
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="20" t="s">
         <v>76</v>
       </c>
       <c r="O3" s="6"/>
@@ -1194,27 +1191,27 @@
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="26"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="21"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -1248,27 +1245,27 @@
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="32"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="26"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1302,27 +1299,27 @@
       <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1356,27 +1353,27 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="10" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="26"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1410,27 +1407,27 @@
       <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="24"/>
+      <c r="I8" s="11" t="s">
         <v>60</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1464,27 +1461,27 @@
       <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1518,27 +1515,27 @@
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="24"/>
+      <c r="I10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="26"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1572,835 +1569,835 @@
       <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="24"/>
+      <c r="I11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="26"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:42" ht="14.1" customHeight="1">
       <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="26"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:42" ht="14.1" customHeight="1">
       <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="17" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="26"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:42" ht="14.1" customHeight="1">
       <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="22" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="24"/>
+      <c r="I14" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="26"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:42" ht="14.1" customHeight="1">
       <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="22" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="24"/>
+      <c r="I15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="26"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:42" ht="14.1" customHeight="1">
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="22" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="16" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="26"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="22" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="16" t="s">
+      <c r="H17" s="24"/>
+      <c r="I17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="26"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="22" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="24"/>
+      <c r="I18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="26"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:14" ht="14.1" customHeight="1">
       <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="22" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="24"/>
+      <c r="I19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="26"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" ht="14.1" customHeight="1">
       <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="22" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="16" t="s">
+      <c r="H20" s="24"/>
+      <c r="I20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="26"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" ht="14.1" customHeight="1">
       <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="22" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="16" t="s">
+      <c r="H21" s="24"/>
+      <c r="I21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="26"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14" ht="14.1" customHeight="1">
       <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="16" t="s">
+      <c r="H22" s="24"/>
+      <c r="I22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="26"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:14" ht="14.1" customHeight="1">
       <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="16" t="s">
+      <c r="H23" s="24"/>
+      <c r="I23" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="26"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" ht="14.1" customHeight="1">
       <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="17" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="16" t="s">
+      <c r="H24" s="24"/>
+      <c r="I24" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="26"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" ht="14.1" customHeight="1">
       <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="22" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="16" t="s">
+      <c r="H25" s="24"/>
+      <c r="I25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="26"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" ht="14.1" customHeight="1">
       <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="22" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="16" t="s">
+      <c r="H26" s="24"/>
+      <c r="I26" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="26"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" ht="14.1" customHeight="1">
       <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="22" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="16" t="s">
+      <c r="H27" s="24"/>
+      <c r="I27" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="26"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="1:14" ht="14.1" customHeight="1">
       <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="16" t="s">
+      <c r="H28" s="24"/>
+      <c r="I28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="26"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="21"/>
     </row>
     <row r="29" spans="1:14" ht="14.1" customHeight="1">
       <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="22" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="24"/>
+      <c r="I29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="26"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:14" ht="14.1" customHeight="1">
       <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="17" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="32"/>
-      <c r="I30" s="16" t="s">
+      <c r="H30" s="24"/>
+      <c r="I30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="26"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:14" ht="14.1" customHeight="1">
       <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="11" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="16" t="s">
+      <c r="H31" s="24"/>
+      <c r="I31" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="26"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" ht="14.1" customHeight="1">
       <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="11" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="17" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="16" t="s">
+      <c r="H32" s="24"/>
+      <c r="I32" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="26"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" ht="14.1" customHeight="1">
       <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="11" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="16" t="s">
+      <c r="H33" s="24"/>
+      <c r="I33" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="26"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" ht="14.1" customHeight="1">
       <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="11" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="19"/>
+      <c r="G34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="16" t="s">
+      <c r="H34" s="24"/>
+      <c r="I34" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="26"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" ht="14.1" customHeight="1">
       <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="11" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="19"/>
+      <c r="G35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="16" t="s">
+      <c r="H35" s="24"/>
+      <c r="I35" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="26"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" ht="14.1" customHeight="1">
       <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="17" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="16" t="s">
+      <c r="H36" s="24"/>
+      <c r="I36" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="26"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="1:14" ht="14.1" customHeight="1">
       <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="17" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="16" t="s">
+      <c r="H37" s="24"/>
+      <c r="I37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="26"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" ht="14.1" customHeight="1">
       <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="17" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="16" t="s">
+      <c r="H38" s="24"/>
+      <c r="I38" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="26"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="1:14" ht="14.1" customHeight="1">
       <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="17" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="16" t="s">
+      <c r="H39" s="24"/>
+      <c r="I39" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="26"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="14.1" customHeight="1">
       <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="17" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="16" t="s">
+      <c r="H40" s="24"/>
+      <c r="I40" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="26"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" ht="14.1" customHeight="1">
       <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="17" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="16" t="s">
+      <c r="H41" s="24"/>
+      <c r="I41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="26"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="14.1" customHeight="1">
       <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="17" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="G42" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="16" t="s">
+      <c r="H42" s="25"/>
+      <c r="I42" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="27"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="22"/>
     </row>
     <row r="45" spans="1:14" ht="14.1" customHeight="1">
-      <c r="I45" s="19"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:14" ht="14.1" customHeight="1">
-      <c r="I46" s="19"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:14" ht="14.1" customHeight="1">
-      <c r="I47" s="19"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:14" ht="14.1" customHeight="1">
-      <c r="I48" s="19"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" spans="9:9" ht="14.1" customHeight="1">
-      <c r="I49" s="19"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" spans="9:9" ht="14.1" customHeight="1">
-      <c r="I50" s="19"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="9:9" ht="14.1" customHeight="1">
-      <c r="I51" s="19"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="9:9" ht="14.1" customHeight="1">
-      <c r="I52" s="19"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="9:9" ht="14.1" customHeight="1">
-      <c r="I53" s="19"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="9:9" ht="14.1" customHeight="1">
-      <c r="I54" s="19"/>
+      <c r="I54" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:N42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
